--- a/assets/formatos/formato_para_inventario.xlsx
+++ b/assets/formatos/formato_para_inventario.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="820" windowWidth="31480" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>MARCA</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>SUCURSAL</t>
   </si>
 </sst>
 </file>
@@ -174,10 +177,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -517,188 +527,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="9" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
+    <col min="5" max="10" width="16.6640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="19" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="30">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2">
+      <c r="I2" s="2">
         <v>120</v>
       </c>
-      <c r="I2">
+      <c r="J2" s="2">
         <v>190</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
+    <row r="3" spans="1:15" ht="30">
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="2">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3">
+      <c r="I3" s="2">
         <v>180</v>
       </c>
-      <c r="I3">
+      <c r="J3" s="2">
         <v>323.33999999999997</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
+    <row r="4" spans="1:15" ht="30">
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4">
+      <c r="I4" s="2">
         <v>145.44</v>
       </c>
-      <c r="I4">
+      <c r="J4" s="2">
         <v>320</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
+    <row r="5" spans="1:15">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H5">
+      <c r="I5" s="2">
         <v>500</v>
       </c>
-      <c r="I5">
+      <c r="J5" s="2">
         <v>870.5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Debes ingresar solo números" promptTitle="Tipo de dato" prompt="Solo numeros" sqref="C1:C1048576">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Debes ingresar solo números" promptTitle="Tipo de dato" prompt="Solo numeros" sqref="D1:D1048576">
       <formula1>1</formula1>
       <formula2>500</formula2>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dato incorrecto" error="Debes ingresar solo número con decimales" promptTitle="Tipo de datos" prompt="Solo numeros con decimales" sqref="H1:I1048576">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dato incorrecto" error="Debes ingresar solo número con decimales" promptTitle="Tipo de datos" prompt="Solo numeros con decimales" sqref="I1:J1048576">
       <formula1>1</formula1>
       <formula2>100000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
-      <formula1>$N$2:$N$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>$O$2:$O$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/assets/formatos/formato_para_inventario.xlsx
+++ b/assets/formatos/formato_para_inventario.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>MARCA</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>CATEGORIA</t>
-  </si>
-  <si>
-    <t>SUCURSAL</t>
   </si>
 </sst>
 </file>
@@ -527,191 +524,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="10" width="16.6640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="19" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
+    <col min="4" max="9" width="16.6640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30">
+    <row r="1" spans="1:14" ht="30">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2">
+        <v>120</v>
+      </c>
+      <c r="I2" s="2">
+        <v>190</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2">
+        <v>180</v>
+      </c>
+      <c r="I3" s="2">
+        <v>323.33999999999997</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2">
+        <v>145.44</v>
+      </c>
+      <c r="I4" s="2">
+        <v>320</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2">
-        <v>120</v>
-      </c>
-      <c r="J2" s="2">
-        <v>190</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="30">
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2">
-        <v>180</v>
-      </c>
-      <c r="J3" s="2">
-        <v>323.33999999999997</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="30">
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2">
-        <v>145.44</v>
-      </c>
-      <c r="J4" s="2">
-        <v>320</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
+      <c r="H5" s="2">
+        <v>500</v>
       </c>
       <c r="I5" s="2">
-        <v>500</v>
-      </c>
-      <c r="J5" s="2">
         <v>870.5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Debes ingresar solo números" promptTitle="Tipo de dato" prompt="Solo numeros" sqref="D1:D1048576">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Debes ingresar solo números" promptTitle="Tipo de dato" prompt="Solo numeros" sqref="C1:C1048576">
       <formula1>1</formula1>
       <formula2>500</formula2>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dato incorrecto" error="Debes ingresar solo número con decimales" promptTitle="Tipo de datos" prompt="Solo numeros con decimales" sqref="I1:J1048576">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dato incorrecto" error="Debes ingresar solo número con decimales" promptTitle="Tipo de datos" prompt="Solo numeros con decimales" sqref="H1:I1048576">
       <formula1>1</formula1>
       <formula2>100000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
-      <formula1>$O$2:$O$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+      <formula1>$N$2:$N$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/formatos/formato_para_inventario.xlsx
+++ b/assets/formatos/formato_para_inventario.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Inventario" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -146,12 +146,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -176,13 +182,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -527,169 +533,169 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
-    <col min="4" max="9" width="16.6640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
+    <col min="4" max="9" width="16.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>120</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>190</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>180</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>323.33999999999997</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="30">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>145.44</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>320</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>500</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>870.5</v>
       </c>
     </row>
